--- a/Template/Шаблон для загрузки оргструктуры в DirectumRX.xlsx
+++ b/Template/Шаблон для загрузки оргструктуры в DirectumRX.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DEV\rx-util-importdata-net-core\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\src_dev\rx-util-importdata-net-core\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -600,7 +600,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -621,6 +621,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,7 +658,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -673,6 +679,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1241,7 +1250,7 @@
   <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1269,16 +1278,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="4" t="s">

--- a/Template/Шаблон для загрузки оргструктуры в DirectumRX.xlsx
+++ b/Template/Шаблон для загрузки оргструктуры в DirectumRX.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\src_dev\rx-util-importdata-net-core\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ImportUtil\Core\rx-util-importdata-net-core\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="17100" windowHeight="9855" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="17100" windowHeight="9855"/>
   </bookViews>
   <sheets>
     <sheet name="НашиОрганизации" sheetId="7" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Сотрудники" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">НашиОрганизации!$A$1:$V$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">НашиОрганизации!$A$1:$W$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Подразделения!$A$1:$K$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Сотрудники!$A$1:$V$14</definedName>
   </definedNames>
@@ -107,11 +107,48 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
+          <t xml:space="preserve">ФИО руководителя в формате
+"Фамилия Имя Отчество" или,
+</t>
+        </r>
+        <r>
+          <rPr>
+            <u/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>в случае отсутствия отчества</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>, "Фамилия Имя"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
           <t>10 или 12 цифр, проверка контрольной суммы для резидентов</t>
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -125,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -139,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -153,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -167,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -181,7 +218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -195,7 +232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="T1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -446,7 +483,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>ИНН</t>
   </si>
@@ -560,12 +597,15 @@
   </si>
   <si>
     <t>Подробности</t>
+  </si>
+  <si>
+    <t>Нерезидент</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1031,10 +1071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E2" sqref="A2:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1042,26 +1082,27 @@
     <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="55.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="58.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="55.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="58.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -1074,74 +1115,77 @@
       <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="T2" s="7"/>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="G3" s="6"/>
-      <c r="T3" s="7"/>
+      <c r="W2" s="7"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="H3" s="6"/>
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V3"/>
+  <autoFilter ref="A1:W3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -1153,7 +1197,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD9"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1249,7 +1293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>

--- a/Template/Шаблон для загрузки оргструктуры в DirectumRX.xlsx
+++ b/Template/Шаблон для загрузки оргструктуры в DirectumRX.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr showInkAnnotation="0" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ImportData\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agaf73\source\repos\rx-util-importdata-net-core\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393B9EAC-361F-4E08-9EC5-2948F1EFF846}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="17100" windowHeight="9855"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="НашиОрганизации" sheetId="7" r:id="rId1"/>
@@ -26,13 +27,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Попова Елена  (Popova_EI)</author>
     <author>Зорина Елена (Zorina_EV)</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -46,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" shapeId="0">
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -60,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -97,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -134,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -148,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -162,7 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -176,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -190,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -204,7 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -218,7 +219,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -232,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -251,12 +252,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Зорина Елена (Zorina_EV)</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -270,7 +271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -285,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -327,14 +328,14 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Зорина Елена (Zorina_EV)</author>
     <author>Токмурзин Павел  (Tokmurzin_PV)</author>
     <author>Попова Елена  (Popova_EI)</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -348,7 +349,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -362,7 +363,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="1" shapeId="0">
+    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -378,7 +379,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="2" shapeId="0">
+    <comment ref="G1" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -392,7 +393,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="2" shapeId="0">
+    <comment ref="H1" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -406,7 +407,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="2" shapeId="0">
+    <comment ref="J1" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -420,7 +421,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="2" shapeId="0">
+    <comment ref="K1" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -434,7 +435,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="2" shapeId="0">
+    <comment ref="O1" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -449,7 +450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -464,7 +465,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -605,7 +606,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -700,27 +701,27 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1070,7 +1071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1183,7 +1184,7 @@
       <c r="V3" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W3"/>
+  <autoFilter ref="A1:W3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -1191,7 +1192,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -1280,7 +1281,7 @@
       <c r="K8" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K8"/>
+  <autoFilter ref="A1:K8" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -1288,11 +1289,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD7"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1362,7 +1363,7 @@
       <c r="N1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="9" t="s">
         <v>30</v>
       </c>
       <c r="P1" s="1" t="s">
@@ -1460,7 +1461,7 @@
       <c r="V15" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V16"/>
+  <autoFilter ref="A1:V16" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/Template/Шаблон для загрузки оргструктуры в DirectumRX.xlsx
+++ b/Template/Шаблон для загрузки оргструктуры в DirectumRX.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
-  <workbookPr showInkAnnotation="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr showInkAnnotation="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agaf73\source\repos\rx-util-importdata-net-core\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\rx-util-importdata-net-core\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393B9EAC-361F-4E08-9EC5-2948F1EFF846}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="НашиОрганизации" sheetId="7" r:id="rId1"/>
@@ -20,20 +19,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">НашиОрганизации!$A$1:$W$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Подразделения!$A$1:$K$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Сотрудники!$A$1:$V$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Сотрудники!$B$1:$W$14</definedName>
   </definedNames>
   <calcPr calcId="152511" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Попова Елена  (Popova_EI)</author>
     <author>Зорина Елена (Zorina_EV)</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="C1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -98,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -135,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -149,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -163,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -177,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -191,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -205,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -219,7 +218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -233,7 +232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="T1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -252,12 +251,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Зорина Елена (Zorina_EV)</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -271,7 +270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -286,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -328,14 +327,28 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Зорина Елена (Zorina_EV)</author>
     <author>Токмурзин Павел  (Tokmurzin_PV)</author>
     <author>Попова Елена  (Popova_EI)</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Наименование записи из справочника Наши организации.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -349,7 +362,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -363,7 +376,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="G1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -379,7 +392,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="H1" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -393,7 +406,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+    <comment ref="I1" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -407,7 +420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
+    <comment ref="K1" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -421,7 +434,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
+    <comment ref="L1" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -435,7 +448,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
+    <comment ref="P1" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -450,7 +463,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -465,7 +478,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -484,7 +497,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>ИНН</t>
   </si>
@@ -606,7 +619,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1071,39 +1084,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
+    <col min="5" max="5" width="34.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="55.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="58.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="55.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="58.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -1174,17 +1185,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
       <c r="H3" s="6"/>
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:W3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -1192,25 +1203,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
-    <col min="8" max="8" width="36.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" customWidth="1"/>
+    <col min="5" max="5" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+    <col min="8" max="8" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -1245,43 +1254,43 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K8" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:K8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -1289,179 +1298,181 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:V15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
-    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.140625" customWidth="1"/>
-    <col min="2" max="2" width="42.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" customWidth="1"/>
-    <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" customWidth="1"/>
-    <col min="12" max="12" width="34.42578125" customWidth="1"/>
-    <col min="13" max="13" width="32.140625" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="24.140625" customWidth="1"/>
-    <col min="19" max="19" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" customWidth="1"/>
+    <col min="3" max="3" width="42.44140625" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="21.44140625" customWidth="1"/>
+    <col min="12" max="12" width="21.109375" customWidth="1"/>
+    <col min="13" max="13" width="34.44140625" customWidth="1"/>
+    <col min="14" max="14" width="32.109375" customWidth="1"/>
+    <col min="15" max="15" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="24.109375" customWidth="1"/>
+    <col min="20" max="20" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="T2" s="7"/>
+    <row r="2" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="T3" s="7"/>
+      <c r="W2" s="7"/>
+    </row>
+    <row r="3" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="T4" s="7"/>
+      <c r="W3" s="7"/>
+    </row>
+    <row r="4" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="T5" s="7"/>
+      <c r="W4" s="7"/>
+    </row>
+    <row r="5" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="H6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="T6" s="7"/>
+      <c r="W5" s="7"/>
+    </row>
+    <row r="6" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="I6" s="6"/>
+      <c r="S6" s="6"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="T7" s="7"/>
+      <c r="W6" s="7"/>
+    </row>
+    <row r="7" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="T8" s="7"/>
+      <c r="W7" s="7"/>
+    </row>
+    <row r="8" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="T9" s="7"/>
+      <c r="W8" s="7"/>
+    </row>
+    <row r="9" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="T10" s="7"/>
+      <c r="W9" s="7"/>
+    </row>
+    <row r="10" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="T11" s="7"/>
+      <c r="W10" s="7"/>
+    </row>
+    <row r="11" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="T12" s="7"/>
+      <c r="W11" s="7"/>
+    </row>
+    <row r="12" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="T13" s="7"/>
+      <c r="W12" s="7"/>
+    </row>
+    <row r="13" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="T14" s="7"/>
+      <c r="W13" s="7"/>
+    </row>
+    <row r="14" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="T15" s="7"/>
+      <c r="W14" s="7"/>
+    </row>
+    <row r="15" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V16" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="B1:W16"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
